--- a/stSemiPar/data/Resum.xlsx
+++ b/stSemiPar/data/Resum.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,30 +380,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Bias.2</t>
+          <t>Bias.3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Sd.2</t>
+          <t>Sd.3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MSE.2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Bias.3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Sd.3</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>MSE.3</t>
         </is>
@@ -416,167 +401,72 @@
         </is>
       </c>
       <c r="B2">
-        <v>-2.438792005665103</v>
+        <v>110.5287</v>
       </c>
       <c r="C2">
-        <v>16.35768758320799</v>
+        <v>24.1895</v>
       </c>
       <c r="D2">
-        <v>0.2681701706553363</v>
+        <v>12.79</v>
       </c>
       <c r="E2">
-        <v>9.955041771391393</v>
+        <v>-0.3954</v>
       </c>
       <c r="F2">
-        <v>37.35560568167787</v>
+        <v>0.2889</v>
       </c>
       <c r="G2">
-        <v>1.466635306998249</v>
-      </c>
-      <c r="H2">
-        <v>-0.02330634028024254</v>
-      </c>
-      <c r="I2">
-        <v>0.254655133667018</v>
-      </c>
-      <c r="J2">
-        <v>0.08034016756673129</v>
+        <v>0.3903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$\text{WEC}_t$</t>
+          <t>$\text{WEC}_{st}$</t>
         </is>
       </c>
       <c r="B3">
-        <v>-0.1157482778479935</v>
+        <v>77.715</v>
       </c>
       <c r="C3">
-        <v>0.6587384365646954</v>
+        <v>29.3316</v>
       </c>
       <c r="D3">
-        <v>0.000438655265076317</v>
+        <v>6.8044</v>
       </c>
       <c r="E3">
-        <v>1.030646450385753</v>
+        <v>-0.0153</v>
       </c>
       <c r="F3">
-        <v>5.015256599360614</v>
+        <v>0.2299</v>
       </c>
       <c r="G3">
-        <v>0.02571197488797491</v>
-      </c>
-      <c r="H3">
-        <v>-0.02618624857354976</v>
-      </c>
-      <c r="I3">
-        <v>0.2531853627162886</v>
-      </c>
-      <c r="J3">
-        <v>0.07911082688592147</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$\text{WEC}_{tw}$</t>
+          <t>$\text{WEC}_{stw}$</t>
         </is>
       </c>
       <c r="B4">
-        <v>-0.05882201297624512</v>
+        <v>55.048</v>
       </c>
       <c r="C4">
-        <v>0.6960720255765739</v>
+        <v>26.3058</v>
       </c>
       <c r="D4">
-        <v>0.0004782859687050461</v>
+        <v>3.7084</v>
       </c>
       <c r="E4">
-        <v>1.022224239251024</v>
+        <v>-0.2123</v>
       </c>
       <c r="F4">
-        <v>4.673193909051387</v>
+        <v>0.2561</v>
       </c>
       <c r="G4">
-        <v>0.02244690888067592</v>
-      </c>
-      <c r="H4">
-        <v>-0.01858776577076992</v>
-      </c>
-      <c r="I4">
-        <v>0.2303936444373169</v>
-      </c>
-      <c r="J4">
-        <v>0.06485222624216273</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>$\text{WEC}_{st}$</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>-0.09478967301967955</v>
-      </c>
-      <c r="C5">
-        <v>0.9167957397145308</v>
-      </c>
-      <c r="D5">
-        <v>0.0008326892219027187</v>
-      </c>
-      <c r="E5">
-        <v>0.584631376749023</v>
-      </c>
-      <c r="F5">
-        <v>3.004902124715408</v>
-      </c>
-      <c r="G5">
-        <v>0.009190641890216579</v>
-      </c>
-      <c r="H5">
-        <v>-0.03129200414196177</v>
-      </c>
-      <c r="I5">
-        <v>0.2436115185597388</v>
-      </c>
-      <c r="J5">
-        <v>0.07296216237244499</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>$\text{WEC}_{stw}$</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>-0.005907947691174975</v>
-      </c>
-      <c r="C6">
-        <v>0.7371285957440817</v>
-      </c>
-      <c r="D6">
-        <v>0.0005325262991762902</v>
-      </c>
-      <c r="E6">
-        <v>0.5556509050936853</v>
-      </c>
-      <c r="F6">
-        <v>2.118283358064327</v>
-      </c>
-      <c r="G6">
-        <v>0.004706129825682233</v>
-      </c>
-      <c r="H6">
-        <v>-0.01713863623741248</v>
-      </c>
-      <c r="I6">
-        <v>0.2314003596796049</v>
-      </c>
-      <c r="J6">
-        <v>0.0655711217558307</v>
+        <v>0.1599</v>
       </c>
     </row>
   </sheetData>

--- a/stSemiPar/data/Resum.xlsx
+++ b/stSemiPar/data/Resum.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,72 +401,97 @@
         </is>
       </c>
       <c r="B2">
-        <v>110.5287</v>
+        <v>8.060000000000001</v>
       </c>
       <c r="C2">
-        <v>24.1895</v>
+        <v>31.7486</v>
       </c>
       <c r="D2">
-        <v>12.79</v>
+        <v>1.0729</v>
       </c>
       <c r="E2">
-        <v>-0.3954</v>
+        <v>-0.8973</v>
       </c>
       <c r="F2">
-        <v>0.2889</v>
+        <v>93.8601</v>
       </c>
       <c r="G2">
-        <v>0.3903</v>
+        <v>8.810499999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$\text{WEC}_{st}$</t>
+          <t>WII</t>
         </is>
       </c>
       <c r="B3">
-        <v>77.715</v>
+        <v>4.36</v>
       </c>
       <c r="C3">
-        <v>29.3316</v>
+        <v>25.2116</v>
       </c>
       <c r="D3">
-        <v>6.8044</v>
+        <v>0.6546</v>
       </c>
       <c r="E3">
-        <v>-0.0153</v>
+        <v>1.0363</v>
       </c>
       <c r="F3">
-        <v>0.2299</v>
+        <v>92.5234</v>
       </c>
       <c r="G3">
-        <v>0.0665</v>
+        <v>8.5617</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$\text{WEC}_{stw}$</t>
+          <t>$\text{WTC}$</t>
         </is>
       </c>
       <c r="B4">
-        <v>55.048</v>
+        <v>4.34</v>
       </c>
       <c r="C4">
-        <v>26.3058</v>
+        <v>25.1734</v>
       </c>
       <c r="D4">
-        <v>3.7084</v>
+        <v>0.6525</v>
       </c>
       <c r="E4">
-        <v>-0.2123</v>
+        <v>1.8702</v>
       </c>
       <c r="F4">
-        <v>0.2561</v>
+        <v>93.7376</v>
       </c>
       <c r="G4">
-        <v>0.1599</v>
+        <v>8.790200000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>$\text{WTC}_{w}$</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>4.36</v>
+      </c>
+      <c r="C5">
+        <v>25.1573</v>
+      </c>
+      <c r="D5">
+        <v>0.6519</v>
+      </c>
+      <c r="E5">
+        <v>1.5139</v>
+      </c>
+      <c r="F5">
+        <v>89.7308</v>
+      </c>
+      <c r="G5">
+        <v>8.053900000000001</v>
       </c>
     </row>
   </sheetData>
